--- a/InputFiles/Efficacy Parameters.xlsx
+++ b/InputFiles/Efficacy Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B15C573-EDFD-45B5-9168-C877A1C61F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25C1993-9F44-4764-85DE-83E77F7C5B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="116">
   <si>
     <t>SCWAD</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Peak (c)</t>
+  </si>
+  <si>
+    <t>PERT</t>
   </si>
 </sst>
 </file>
@@ -5009,9 +5012,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5029,21 +5032,21 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>112</v>
@@ -5092,7 +5095,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>0.47102899999999998</v>
@@ -5105,7 +5108,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>112</v>
@@ -5116,7 +5119,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>0.47102899999999998</v>
@@ -5129,7 +5132,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>112</v>
@@ -5140,7 +5143,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>0.47102899999999998</v>
@@ -5153,7 +5156,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>112</v>
@@ -5164,7 +5167,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2">
         <v>0.47102899999999998</v>
@@ -5177,7 +5180,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>112</v>
@@ -5188,7 +5191,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>0.47102899999999998</v>
@@ -5201,7 +5204,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>112</v>
@@ -5212,7 +5215,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>0.47102899999999998</v>
@@ -5225,7 +5228,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>112</v>
@@ -5236,7 +5239,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2">
         <v>0.47102899999999998</v>
@@ -5249,7 +5252,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>112</v>
@@ -5260,7 +5263,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2">
         <v>0.47102899999999998</v>
@@ -5273,7 +5276,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>112</v>
@@ -5284,7 +5287,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2">
         <v>0.47102899999999998</v>
@@ -5297,7 +5300,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>112</v>
@@ -5308,7 +5311,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2">
         <v>0.47102899999999998</v>
@@ -5321,7 +5324,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>112</v>
@@ -5332,7 +5335,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2">
         <v>0.47102899999999998</v>
@@ -5345,7 +5348,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>112</v>
@@ -5356,7 +5359,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2">
         <v>0.47102899999999998</v>
@@ -5369,7 +5372,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>112</v>
@@ -5380,7 +5383,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2">
         <v>0.47102899999999998</v>
@@ -5393,7 +5396,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>112</v>
@@ -5404,7 +5407,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2">
         <v>0.47102899999999998</v>
@@ -5417,7 +5420,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>112</v>
@@ -5428,7 +5431,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2">
         <v>0.47102899999999998</v>
@@ -5441,7 +5444,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>112</v>
@@ -5452,7 +5455,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2">
         <v>0.47102899999999998</v>
@@ -5465,7 +5468,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>112</v>
@@ -5476,7 +5479,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2">
         <v>0.47102899999999998</v>
@@ -5489,7 +5492,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>112</v>
@@ -5500,7 +5503,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2">
         <v>0.47102899999999998</v>
@@ -5547,18 +5550,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>101</v>
@@ -5632,7 +5635,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>101</v>
@@ -5668,7 +5671,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>101</v>
@@ -5704,7 +5707,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>101</v>
@@ -5740,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>101</v>
@@ -5776,7 +5779,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>101</v>
@@ -5812,7 +5815,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>101</v>
@@ -5848,7 +5851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>101</v>
@@ -5884,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>101</v>
@@ -5920,7 +5923,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>101</v>
@@ -5956,7 +5959,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>101</v>
@@ -5992,7 +5995,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>101</v>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>101</v>
@@ -6064,7 +6067,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>101</v>
@@ -6100,7 +6103,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>101</v>
@@ -6136,7 +6139,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>101</v>
@@ -6172,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>101</v>
@@ -6208,7 +6211,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>101</v>
@@ -6244,7 +6247,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>101</v>
@@ -6280,7 +6283,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>101</v>
@@ -6316,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>101</v>
@@ -6352,7 +6355,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>101</v>
@@ -6388,7 +6391,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>101</v>
@@ -6424,7 +6427,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>101</v>
@@ -6460,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>101</v>
@@ -6496,7 +6499,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>101</v>
@@ -6532,7 +6535,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>101</v>
@@ -6568,7 +6571,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>101</v>
@@ -6604,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>101</v>
@@ -6640,7 +6643,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>101</v>
@@ -6676,7 +6679,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>101</v>
@@ -6712,7 +6715,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>101</v>
@@ -6748,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>101</v>
@@ -6784,7 +6787,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>101</v>
@@ -6820,7 +6823,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>101</v>
@@ -6856,7 +6859,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>101</v>
@@ -6892,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>101</v>
@@ -6928,7 +6931,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>101</v>
@@ -6964,7 +6967,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>101</v>
@@ -7000,7 +7003,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>101</v>
@@ -7036,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>101</v>
@@ -7072,7 +7075,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>101</v>
@@ -7108,7 +7111,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>101</v>
@@ -7144,7 +7147,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
         <v>101</v>
@@ -7180,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>101</v>
@@ -7216,7 +7219,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>101</v>
@@ -7252,7 +7255,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>101</v>
@@ -7288,7 +7291,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>101</v>
@@ -7324,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>101</v>
@@ -7360,7 +7363,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
@@ -7396,7 +7399,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>101</v>
@@ -7432,7 +7435,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>101</v>
@@ -7468,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>101</v>
@@ -7504,7 +7507,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>101</v>
@@ -7540,7 +7543,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>101</v>
@@ -7576,7 +7579,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>101</v>
@@ -7612,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>101</v>
@@ -7648,7 +7651,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>101</v>
@@ -7684,7 +7687,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>101</v>
@@ -7720,7 +7723,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>101</v>
@@ -7756,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>101</v>
@@ -7792,7 +7795,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>101</v>
@@ -7828,7 +7831,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>101</v>
@@ -7864,7 +7867,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>101</v>
@@ -7900,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>101</v>
@@ -7936,7 +7939,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>101</v>
@@ -7972,7 +7975,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>101</v>
@@ -8008,7 +8011,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>101</v>
@@ -8044,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>101</v>
@@ -8080,7 +8083,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>101</v>
@@ -8116,7 +8119,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>101</v>
@@ -8152,7 +8155,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>101</v>
@@ -8356,21 +8359,21 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>113</v>
@@ -8419,7 +8422,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2">
         <v>3.5094379999999998</v>
@@ -8432,7 +8435,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>113</v>
@@ -8443,7 +8446,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>3.5094379999999998</v>
@@ -8456,7 +8459,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>113</v>
@@ -8467,7 +8470,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G4" s="2">
         <v>3.5094379999999998</v>
@@ -8480,7 +8483,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>113</v>
@@ -8491,7 +8494,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2">
         <v>3.5094379999999998</v>
@@ -8504,7 +8507,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>113</v>
@@ -8515,7 +8518,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2">
         <v>3.5094379999999998</v>
@@ -8528,7 +8531,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>113</v>
@@ -8539,7 +8542,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>3.5094379999999998</v>
@@ -8552,7 +8555,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>113</v>
@@ -8563,7 +8566,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2">
         <v>3.5094379999999998</v>
@@ -8576,7 +8579,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>113</v>
@@ -8587,7 +8590,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2">
         <v>3.5094379999999998</v>
@@ -8600,7 +8603,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>113</v>
@@ -8611,7 +8614,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G10" s="2">
         <v>3.5094379999999998</v>
@@ -8624,7 +8627,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>113</v>
@@ -8635,7 +8638,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2">
         <v>3.5094379999999998</v>
@@ -8648,7 +8651,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>113</v>
@@ -8659,7 +8662,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2">
         <v>3.5094379999999998</v>
@@ -8672,7 +8675,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>113</v>
@@ -8683,7 +8686,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2">
         <v>3.5094379999999998</v>
@@ -8696,7 +8699,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>113</v>
@@ -8707,7 +8710,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G14" s="2">
         <v>3.5094379999999998</v>
@@ -8720,7 +8723,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>113</v>
@@ -8731,7 +8734,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G15" s="2">
         <v>3.5094379999999998</v>
@@ -8744,7 +8747,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>113</v>
@@ -8755,7 +8758,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2">
         <v>3.5094379999999998</v>
@@ -8768,7 +8771,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>113</v>
@@ -8779,7 +8782,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2">
         <v>3.5094379999999998</v>
@@ -8792,7 +8795,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>113</v>
@@ -8803,7 +8806,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2">
         <v>3.5094379999999998</v>
@@ -8816,7 +8819,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>113</v>
@@ -8827,7 +8830,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G19" s="2">
         <v>3.5094379999999998</v>
@@ -8871,22 +8874,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B20B03-2065-450A-A7E6-5A9BED0FCB27}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>102</v>
@@ -8960,7 +8963,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>102</v>
@@ -8996,7 +8999,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>102</v>
@@ -9032,7 +9035,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>102</v>
@@ -9068,7 +9071,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>102</v>
@@ -9104,7 +9107,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>102</v>
@@ -9140,7 +9143,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>102</v>
@@ -9176,7 +9179,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>102</v>
@@ -9212,7 +9215,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>102</v>
@@ -9248,7 +9251,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>102</v>
@@ -9284,7 +9287,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>102</v>
@@ -9320,7 +9323,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>102</v>
@@ -9356,7 +9359,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>102</v>
@@ -9392,7 +9395,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>102</v>
@@ -9428,7 +9431,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>102</v>
@@ -9464,7 +9467,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>102</v>
@@ -9500,7 +9503,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>102</v>
@@ -9536,7 +9539,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>102</v>
@@ -9572,7 +9575,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>102</v>
@@ -9608,7 +9611,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>102</v>
@@ -9644,7 +9647,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>102</v>
@@ -9680,7 +9683,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>102</v>
@@ -9716,7 +9719,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>102</v>
@@ -9752,7 +9755,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>102</v>
@@ -9788,7 +9791,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>102</v>
@@ -9824,7 +9827,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>102</v>
@@ -9860,7 +9863,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>102</v>
@@ -9896,7 +9899,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>102</v>
@@ -9932,7 +9935,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>102</v>
@@ -9968,7 +9971,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>102</v>
@@ -10004,7 +10007,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>102</v>
@@ -10040,7 +10043,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>102</v>
@@ -10076,7 +10079,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>102</v>
@@ -10112,7 +10115,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>102</v>
@@ -10148,7 +10151,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>102</v>
@@ -10184,7 +10187,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>102</v>
@@ -10220,7 +10223,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>102</v>
@@ -10256,7 +10259,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>102</v>
@@ -10292,7 +10295,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>102</v>
@@ -10328,7 +10331,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>102</v>
@@ -10364,7 +10367,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>102</v>
@@ -10400,7 +10403,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>102</v>
@@ -10436,7 +10439,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -10472,7 +10475,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>102</v>
@@ -10508,7 +10511,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>102</v>
@@ -10544,7 +10547,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>102</v>
@@ -10580,7 +10583,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>102</v>
@@ -10616,7 +10619,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>102</v>
@@ -10652,7 +10655,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>102</v>
@@ -10688,7 +10691,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>102</v>
@@ -10724,7 +10727,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>102</v>
@@ -10760,7 +10763,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>102</v>
@@ -10796,7 +10799,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>102</v>
@@ -10832,7 +10835,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>102</v>
@@ -10868,7 +10871,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -10904,7 +10907,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>102</v>
@@ -10940,7 +10943,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>102</v>
@@ -10976,7 +10979,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>102</v>
@@ -11012,7 +11015,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>102</v>
@@ -11048,7 +11051,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>102</v>
@@ -11084,7 +11087,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>102</v>
@@ -11120,7 +11123,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>102</v>
@@ -11156,7 +11159,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
         <v>102</v>
@@ -11192,7 +11195,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>102</v>
@@ -11228,7 +11231,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>102</v>
@@ -11264,7 +11267,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>102</v>
@@ -11300,7 +11303,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>102</v>
@@ -11336,7 +11339,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>102</v>
@@ -11372,7 +11375,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>102</v>
@@ -11408,7 +11411,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>102</v>
@@ -11444,7 +11447,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>102</v>
@@ -11480,7 +11483,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>102</v>
@@ -11516,7 +11519,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>102</v>
@@ -11552,7 +11555,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>102</v>
@@ -11588,7 +11591,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>102</v>
@@ -11624,7 +11627,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>102</v>
@@ -11660,7 +11663,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>102</v>
@@ -11696,7 +11699,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>102</v>
@@ -11732,7 +11735,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>102</v>
@@ -11768,7 +11771,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>102</v>
@@ -11804,7 +11807,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>102</v>
@@ -11840,7 +11843,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>102</v>
@@ -11876,7 +11879,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>102</v>
@@ -11912,7 +11915,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>102</v>
@@ -11948,7 +11951,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>102</v>
@@ -11984,7 +11987,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>102</v>
@@ -12020,7 +12023,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>102</v>
@@ -12056,7 +12059,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>102</v>
@@ -12092,7 +12095,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>102</v>
@@ -12128,7 +12131,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>102</v>
@@ -12164,7 +12167,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>102</v>
@@ -12200,7 +12203,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>102</v>
@@ -12236,7 +12239,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>102</v>
@@ -12272,7 +12275,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>102</v>
@@ -12308,7 +12311,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>102</v>
@@ -12344,7 +12347,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>102</v>
@@ -12380,7 +12383,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>102</v>
@@ -12416,7 +12419,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>102</v>
@@ -12452,7 +12455,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>102</v>
@@ -12488,7 +12491,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>102</v>
@@ -12524,7 +12527,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>102</v>
@@ -12560,7 +12563,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>102</v>
@@ -12596,7 +12599,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>102</v>
@@ -12632,7 +12635,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>102</v>
@@ -12668,7 +12671,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>102</v>
@@ -12704,7 +12707,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>102</v>
@@ -12740,7 +12743,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>102</v>
@@ -12776,7 +12779,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>102</v>
@@ -12812,7 +12815,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>102</v>
@@ -12848,7 +12851,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>102</v>
@@ -12884,7 +12887,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>102</v>
@@ -12920,7 +12923,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>102</v>
@@ -12956,7 +12959,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>102</v>
@@ -12992,7 +12995,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>102</v>
@@ -13028,7 +13031,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>102</v>
@@ -13064,7 +13067,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>102</v>
@@ -13100,7 +13103,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>102</v>
@@ -13136,7 +13139,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>102</v>
@@ -13172,7 +13175,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>102</v>
@@ -13208,7 +13211,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>102</v>
@@ -13244,7 +13247,7 @@
         <v>8.2873900293255005</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>102</v>
@@ -13280,7 +13283,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>102</v>
@@ -13316,7 +13319,7 @@
         <v>8.6999999999999904</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>102</v>
@@ -13352,7 +13355,7 @@
         <v>-5.5612269236273097E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>102</v>
@@ -13388,7 +13391,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>102</v>
@@ -13424,7 +13427,7 @@
         <v>-0.16095890410958799</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>102</v>
@@ -13757,17 +13760,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -13793,7 +13796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -13809,7 +13812,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -13827,7 +13830,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -13849,9 +13852,9 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -13867,7 +13870,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -13885,7 +13888,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -13905,7 +13908,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -13923,7 +13926,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -13949,7 +13952,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -13990,34 +13993,34 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>ROWS($A$10:A10)</f>
         <v>1</v>
@@ -14026,7 +14029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>ROWS($A$10:A11)</f>
         <v>2</v>
@@ -14035,7 +14038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>ROWS($A$10:A12)</f>
         <v>3</v>
@@ -14044,7 +14047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>ROWS($A$10:A13)</f>
         <v>4</v>
@@ -14053,7 +14056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>ROWS($A$10:A14)</f>
         <v>5</v>
@@ -14062,7 +14065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -14070,12 +14073,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -14083,17 +14086,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14101,22 +14104,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>28</v>
       </c>
@@ -14130,24 +14133,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CFFAB0-DF4A-4480-8414-7980420809C5}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>45</v>
@@ -14221,7 +14224,7 @@
         <v>7.6982999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>45</v>
@@ -14257,7 +14260,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>45</v>
@@ -14293,7 +14296,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>45</v>
@@ -14329,7 +14332,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>45</v>
@@ -14365,7 +14368,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -14401,7 +14404,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
@@ -14437,7 +14440,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>45</v>
@@ -14473,7 +14476,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>45</v>
@@ -14509,7 +14512,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -14545,7 +14548,7 @@
         <v>-5.19480519480515E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -14581,7 +14584,7 @@
         <v>-5.19480519480515E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>45</v>
@@ -14617,7 +14620,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -14653,7 +14656,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>45</v>
@@ -14689,7 +14692,7 @@
         <v>0.23569023569023501</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>45</v>
@@ -14725,7 +14728,7 @@
         <v>0.23569023569023501</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>45</v>
@@ -14761,7 +14764,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>45</v>
@@ -14797,7 +14800,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>45</v>
@@ -14833,7 +14836,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>45</v>
@@ -14869,7 +14872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>45</v>
@@ -14905,7 +14908,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
@@ -14941,7 +14944,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -14977,7 +14980,7 @@
         <v>5.4915824915824798</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>45</v>
@@ -15013,7 +15016,7 @@
         <v>0.23569023569023501</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>45</v>
@@ -15049,7 +15052,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>45</v>
@@ -15085,7 +15088,7 @@
         <v>8.42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
@@ -15121,7 +15124,7 @@
         <v>0.23569023569023501</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
@@ -15157,7 +15160,7 @@
         <v>0.23569023569023501</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>45</v>
@@ -15189,7 +15192,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>45</v>
@@ -15221,7 +15224,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>45</v>
@@ -15247,7 +15250,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>45</v>
@@ -15273,7 +15276,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>45</v>
@@ -15284,7 +15287,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2">
         <v>2.415362</v>
@@ -15297,7 +15300,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>45</v>
@@ -15329,7 +15332,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
@@ -15361,7 +15364,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>45</v>
@@ -15393,7 +15396,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>45</v>
@@ -15425,7 +15428,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>45</v>
@@ -15457,7 +15460,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>45</v>
@@ -15489,7 +15492,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>45</v>
@@ -15515,7 +15518,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>45</v>
@@ -15541,7 +15544,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>45</v>
@@ -15609,18 +15612,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -15658,7 +15661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>74</v>
@@ -15694,7 +15697,7 @@
         <v>1.87062937062937</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>74</v>
@@ -15730,7 +15733,7 @@
         <v>2.6258741258741201</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>74</v>
@@ -15766,7 +15769,7 @@
         <v>2.78321678321677</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>74</v>
@@ -15802,7 +15805,7 @@
         <v>2.78321678321677</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>74</v>
@@ -15838,7 +15841,7 @@
         <v>0.84265734265734304</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>74</v>
@@ -15874,7 +15877,7 @@
         <v>1.06293706293706</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>74</v>
@@ -15910,7 +15913,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>74</v>
@@ -15934,7 +15937,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>74</v>
@@ -15958,7 +15961,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>74</v>
@@ -15982,7 +15985,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>74</v>
@@ -16006,7 +16009,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>74</v>
@@ -16030,7 +16033,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>74</v>
@@ -16054,7 +16057,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>74</v>
@@ -16078,7 +16081,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>74</v>
@@ -16102,7 +16105,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>74</v>
@@ -16126,7 +16129,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>74</v>
@@ -16150,7 +16153,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>74</v>
@@ -16174,7 +16177,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>74</v>
@@ -16198,7 +16201,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>74</v>
@@ -16222,7 +16225,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>74</v>
@@ -16246,7 +16249,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="s">
         <v>74</v>
@@ -16270,7 +16273,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="s">
         <v>74</v>
@@ -16294,7 +16297,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>74</v>
@@ -16350,21 +16353,21 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>108</v>
@@ -16434,7 +16437,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>108</v>
@@ -16466,7 +16469,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>108</v>
@@ -16498,7 +16501,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>108</v>
@@ -16530,7 +16533,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>108</v>
@@ -16562,7 +16565,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>108</v>
@@ -16594,7 +16597,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>108</v>
@@ -16626,7 +16629,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>108</v>
@@ -16658,7 +16661,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>108</v>
@@ -16690,7 +16693,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>108</v>
@@ -16701,7 +16704,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2">
         <v>0.93370200000000003</v>
@@ -16714,7 +16717,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>108</v>
@@ -16746,7 +16749,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>108</v>
@@ -16778,7 +16781,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>108</v>
@@ -16810,7 +16813,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>108</v>
@@ -16842,7 +16845,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>108</v>
@@ -16874,7 +16877,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>108</v>
@@ -16906,7 +16909,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>108</v>
@@ -16938,7 +16941,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>108</v>
@@ -17004,18 +17007,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -17053,7 +17056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>88</v>
@@ -17089,7 +17092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>88</v>
@@ -17125,7 +17128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>88</v>
@@ -17161,7 +17164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>88</v>
@@ -17197,7 +17200,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>88</v>
@@ -17233,7 +17236,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>88</v>
@@ -17269,7 +17272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>88</v>
@@ -17305,7 +17308,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>88</v>
@@ -17341,7 +17344,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>88</v>
@@ -17377,7 +17380,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>88</v>
@@ -17413,7 +17416,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>88</v>
@@ -17449,7 +17452,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>88</v>
@@ -17485,7 +17488,7 @@
         <v>7.38</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>88</v>
@@ -17521,7 +17524,7 @@
         <v>8.08</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>88</v>
@@ -17557,7 +17560,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>88</v>
@@ -17593,7 +17596,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>88</v>
@@ -17629,7 +17632,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>88</v>
@@ -17665,7 +17668,7 @@
         <v>4.9734939759036001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>88</v>
@@ -17701,7 +17704,7 @@
         <v>-1.9277108433734601E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>88</v>
@@ -17737,7 +17740,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>88</v>
@@ -17773,7 +17776,7 @@
         <v>4.9734939759036001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>88</v>
@@ -17809,7 +17812,7 @@
         <v>-1.9277108433734601E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>88</v>
@@ -17845,7 +17848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>88</v>
@@ -17881,7 +17884,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>88</v>
@@ -17917,7 +17920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>88</v>
@@ -17953,7 +17956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>88</v>
@@ -17989,7 +17992,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>88</v>
@@ -18025,7 +18028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>88</v>
@@ -18057,7 +18060,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>88</v>
@@ -18089,7 +18092,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
         <v>88</v>
@@ -18121,7 +18124,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>88</v>
@@ -18153,7 +18156,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>88</v>
@@ -18185,7 +18188,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>88</v>
@@ -18217,7 +18220,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>88</v>
@@ -18249,7 +18252,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>88</v>
@@ -18281,7 +18284,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>88</v>
@@ -18313,7 +18316,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>88</v>
@@ -18345,7 +18348,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>88</v>
@@ -18377,7 +18380,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>88</v>
@@ -18444,18 +18447,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -18493,7 +18496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>96</v>
@@ -18529,7 +18532,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>96</v>
@@ -18565,7 +18568,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>96</v>
@@ -18601,7 +18604,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>96</v>
@@ -18637,7 +18640,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>96</v>
@@ -18673,7 +18676,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>96</v>
@@ -18709,7 +18712,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>96</v>
@@ -18745,7 +18748,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>96</v>
@@ -18781,7 +18784,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>96</v>
@@ -18817,7 +18820,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>96</v>
@@ -18853,7 +18856,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>96</v>
@@ -18889,7 +18892,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>96</v>
@@ -18925,7 +18928,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>96</v>
@@ -18961,7 +18964,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>96</v>
@@ -18997,7 +19000,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>96</v>
@@ -19033,7 +19036,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>96</v>
@@ -19069,7 +19072,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>96</v>
@@ -19105,7 +19108,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>96</v>
@@ -19141,7 +19144,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>96</v>
@@ -19177,7 +19180,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>96</v>
@@ -19213,7 +19216,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>96</v>
@@ -19249,7 +19252,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>96</v>
@@ -19285,7 +19288,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>96</v>
@@ -19321,7 +19324,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>96</v>
@@ -19357,7 +19360,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>96</v>
@@ -19393,7 +19396,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>96</v>
@@ -19429,7 +19432,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>96</v>
@@ -19465,7 +19468,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>96</v>
@@ -19501,7 +19504,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>96</v>
@@ -19537,7 +19540,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>96</v>
@@ -19573,7 +19576,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>96</v>
@@ -19609,7 +19612,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>96</v>
@@ -19645,7 +19648,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>96</v>
@@ -19681,7 +19684,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>96</v>
@@ -19717,7 +19720,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>96</v>
@@ -19753,7 +19756,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>96</v>
@@ -19789,7 +19792,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>96</v>
@@ -19825,7 +19828,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>96</v>
@@ -19861,7 +19864,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>96</v>
@@ -19897,7 +19900,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -19933,7 +19936,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>96</v>
@@ -19969,7 +19972,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>96</v>
@@ -20005,7 +20008,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>96</v>
@@ -20041,7 +20044,7 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>96</v>
@@ -20077,7 +20080,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>96</v>
@@ -20113,7 +20116,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>96</v>
@@ -20149,7 +20152,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>96</v>
@@ -20185,7 +20188,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>96</v>
@@ -20221,7 +20224,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>96</v>
@@ -20257,7 +20260,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>96</v>
@@ -20293,7 +20296,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>96</v>
@@ -20329,7 +20332,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>96</v>
@@ -20365,7 +20368,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>96</v>
@@ -20401,7 +20404,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>96</v>
@@ -20437,7 +20440,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>96</v>
@@ -20473,7 +20476,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>96</v>
@@ -20509,7 +20512,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>96</v>
@@ -20545,7 +20548,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>96</v>
@@ -20581,7 +20584,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>96</v>
@@ -20617,7 +20620,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>96</v>
@@ -20653,7 +20656,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>96</v>
@@ -20689,7 +20692,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>96</v>
@@ -20725,7 +20728,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>96</v>
@@ -20761,7 +20764,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>96</v>
@@ -20797,7 +20800,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>96</v>
@@ -20833,7 +20836,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>96</v>
@@ -20869,7 +20872,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>96</v>
@@ -20905,7 +20908,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>96</v>
@@ -20941,7 +20944,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>96</v>
@@ -20977,7 +20980,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>96</v>
@@ -21013,7 +21016,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>96</v>
@@ -21049,7 +21052,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>96</v>
@@ -21085,7 +21088,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>96</v>
@@ -21121,7 +21124,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -21157,7 +21160,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>96</v>
@@ -21193,7 +21196,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>96</v>
@@ -21229,7 +21232,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>96</v>
@@ -21265,7 +21268,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>96</v>
@@ -21301,7 +21304,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>96</v>
@@ -21337,7 +21340,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>96</v>
@@ -21373,7 +21376,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>96</v>
@@ -21409,7 +21412,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>96</v>
@@ -21445,7 +21448,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>96</v>
@@ -21481,7 +21484,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>96</v>
@@ -21517,7 +21520,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>96</v>
@@ -21553,7 +21556,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>96</v>
@@ -21589,7 +21592,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>96</v>
@@ -21625,7 +21628,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>96</v>
@@ -21661,7 +21664,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>96</v>
@@ -21697,7 +21700,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>96</v>
@@ -21733,7 +21736,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>96</v>
@@ -21769,7 +21772,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>96</v>
@@ -21805,7 +21808,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>96</v>
@@ -21841,7 +21844,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>96</v>
@@ -21877,7 +21880,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>96</v>
@@ -21913,7 +21916,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>96</v>
@@ -21949,7 +21952,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>96</v>
@@ -21985,7 +21988,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>96</v>
@@ -22021,7 +22024,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>96</v>
@@ -22057,7 +22060,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>96</v>
@@ -22093,7 +22096,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -22129,7 +22132,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>96</v>
@@ -22165,7 +22168,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>96</v>
@@ -22201,7 +22204,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>96</v>
@@ -22237,7 +22240,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>96</v>
@@ -22273,7 +22276,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>96</v>
@@ -22309,7 +22312,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>96</v>
@@ -22345,7 +22348,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>96</v>
@@ -22381,7 +22384,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>96</v>
@@ -22417,7 +22420,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>96</v>
@@ -22453,7 +22456,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>96</v>
@@ -22489,7 +22492,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>96</v>
@@ -22525,7 +22528,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>96</v>
@@ -22561,7 +22564,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>96</v>
@@ -22597,7 +22600,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>96</v>
@@ -22633,7 +22636,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>96</v>
@@ -22669,7 +22672,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>96</v>
@@ -22705,7 +22708,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>96</v>
@@ -22741,7 +22744,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2" t="s">
         <v>96</v>
@@ -22777,7 +22780,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2" t="s">
         <v>96</v>
@@ -22813,7 +22816,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
         <v>96</v>
@@ -22849,7 +22852,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2" t="s">
         <v>96</v>
@@ -22885,7 +22888,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2" t="s">
         <v>96</v>
@@ -22921,7 +22924,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2" t="s">
         <v>96</v>
@@ -22957,7 +22960,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>96</v>
@@ -22993,7 +22996,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2" t="s">
         <v>96</v>
@@ -23029,7 +23032,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2" t="s">
         <v>96</v>
@@ -23065,7 +23068,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2" t="s">
         <v>96</v>
@@ -23101,7 +23104,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2" t="s">
         <v>96</v>
@@ -23137,7 +23140,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2" t="s">
         <v>96</v>
@@ -23173,7 +23176,7 @@
         <v>3.2521739130434701</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2" t="s">
         <v>96</v>
@@ -23209,7 +23212,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2" t="s">
         <v>96</v>
@@ -23245,7 +23248,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>96</v>
@@ -23281,7 +23284,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
         <v>96</v>
@@ -23317,7 +23320,7 @@
         <v>4.68564715791338E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
         <v>96</v>
@@ -23353,7 +23356,7 @@
         <v>9.1999999999999904</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
         <v>96</v>
@@ -23389,7 +23392,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>96</v>
@@ -23425,7 +23428,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2" t="s">
         <v>96</v>
@@ -23461,7 +23464,7 @@
         <v>9.1999999999999904</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2" t="s">
         <v>96</v>
@@ -23497,7 +23500,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2" t="s">
         <v>96</v>
@@ -23533,7 +23536,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2" t="s">
         <v>96</v>
@@ -23569,7 +23572,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2" t="s">
         <v>96</v>
@@ -23605,7 +23608,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2" t="s">
         <v>96</v>
@@ -23641,7 +23644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2" t="s">
         <v>96</v>
@@ -23677,7 +23680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2" t="s">
         <v>96</v>
@@ -23713,7 +23716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2" t="s">
         <v>96</v>
@@ -23749,7 +23752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2" t="s">
         <v>96</v>
@@ -23785,7 +23788,7 @@
         <v>9.1999999999999904</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2" t="s">
         <v>96</v>
@@ -23821,7 +23824,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2" t="s">
         <v>96</v>
@@ -23857,7 +23860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2" t="s">
         <v>96</v>
@@ -23893,7 +23896,7 @@
         <v>9.1999999999999904</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2" t="s">
         <v>96</v>
@@ -23929,7 +23932,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
         <v>96</v>
@@ -24000,18 +24003,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
@@ -24049,7 +24052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>109</v>
@@ -24073,7 +24076,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>109</v>
@@ -24097,7 +24100,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>109</v>
@@ -24121,7 +24124,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>109</v>
@@ -24145,7 +24148,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>109</v>
@@ -24169,7 +24172,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>109</v>
@@ -24193,7 +24196,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>109</v>
@@ -24217,7 +24220,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>109</v>
@@ -24241,7 +24244,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>109</v>
@@ -24265,7 +24268,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>109</v>
@@ -24289,7 +24292,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>109</v>
@@ -24313,7 +24316,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>109</v>
@@ -24337,7 +24340,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>109</v>
@@ -24361,7 +24364,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>109</v>
@@ -24385,7 +24388,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>109</v>
@@ -24409,7 +24412,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>109</v>
@@ -24433,7 +24436,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>109</v>
@@ -24457,7 +24460,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>109</v>
